--- a/biology/Médecine/Centre_médical_de_l'université_Columbia/Centre_médical_de_l'université_Columbia.xlsx
+++ b/biology/Médecine/Centre_médical_de_l'université_Columbia/Centre_médical_de_l'université_Columbia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_de_l%27universit%C3%A9_Columbia</t>
+          <t>Centre_médical_de_l'université_Columbia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre médical de l'université Columbia (en anglais Columbia University Medical Center ou CUMC) est un centre hospitalier universitaire associé à l'université Columbia de New York. Il s'étend sur plusieurs blocs d'immeubles entre les 165e et 168e rues, de la Henry Hudson Parkway à l'Audubon Avenue dans la section des  Washington Heights de Manhattan.
 C'est l'hôpital de rattachement du collège des médecins et chirurgiens de l'Université Columbia (Columbia University College of Physicians and Surgeons), du collège de médecine dentaire, de l'école d'infirmières et de l'école de santé publique Joseph-Mailman. Il abrite la partie de l'hôpital presbytérien de New York (New York-Presbyterian Hospital) qui était anciennement connue comme « hôpital presbytérien indépendant ». L'institut psychiatrique de l'État de New York (New York State Psychiatric Institute) se trouve aussi au CUMC, de même que l'hôpital pour enfants Morgan Stanley (Morgan Stanley Children's Hospital) rattaché au New York-Presbyterian et que le parc de recherche biomédicales Audubon (Audubon Biomedical Research Park).
